--- a/EmotionRegulation/EmotionRegulationAsset/Results/Neuroticism.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Neuroticism.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R1cc72aaf4d924f95"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Ra965d0a7d40c4637"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -41,18 +41,21 @@
     <x:t>Distress</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter</x:t>
+    <x:t>Talk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response Modulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hello</x:t>
   </x:si>
   <x:si>
     <x:t>None</x:t>
   </x:si>
   <x:si>
-    <x:t>Love</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
     <x:t>Conversation</x:t>
   </x:si>
   <x:si>
@@ -83,6 +86,18 @@
     <x:t>Profits</x:t>
   </x:si>
   <x:si>
+    <x:t>Remorse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pitty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BecomeRich</x:t>
+  </x:si>
+  <x:si>
     <x:t>Low Conscientiousness</x:t>
   </x:si>
   <x:si>
@@ -92,7 +107,7 @@
     <x:t>High Neuroticism</x:t>
   </x:si>
   <x:si>
-    <x:t>Middle Agreeableness</x:t>
+    <x:t>Low Agreeableness</x:t>
   </x:si>
   <x:si>
     <x:t>Low Openness</x:t>
@@ -105,6 +120,9 @@
   </x:si>
   <x:si>
     <x:t>[Cognitive Change, Weakly]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Response Modulation, Strongly]</x:t>
   </x:si>
   <x:si>
     <x:t>Neuroticism</x:t>
@@ -438,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H20"/>
+  <x:dimension ref="A1:H23"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -472,13 +490,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.4827710390090942</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>4.774208068847656</x:v>
+        <x:v>1.5806987285614014</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -489,67 +507,67 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3">
-        <x:v>-1.1824806928634644</x:v>
+        <x:v>0.6227638125419617</x:v>
       </x:c>
       <x:c r="B3" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3">
-        <x:v>0.9120347499847412</x:v>
+        <x:v>2.005167245864868</x:v>
       </x:c>
       <x:c r="D3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4">
-        <x:v>0</x:v>
+        <x:v>1.501367449760437</x:v>
       </x:c>
       <x:c r="B4" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C4">
-        <x:v>2.334831953048706</x:v>
+        <x:v>2.8519487380981445</x:v>
       </x:c>
       <x:c r="D4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5">
-        <x:v>1.4531155824661255</x:v>
+        <x:v>3.0708096027374268</x:v>
       </x:c>
       <x:c r="B5" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5">
-        <x:v>4.6787238121032715</x:v>
+        <x:v>5.108794689178467</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6">
-        <x:v>0</x:v>
+        <x:v>2.7389841079711914</x:v>
       </x:c>
       <x:c r="B6" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6">
-        <x:v>4.357959747314453</x:v>
+        <x:v>0.9548416137695312</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" t="s">
         <x:v>10</x:v>
@@ -557,33 +575,33 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7">
-        <x:v>0.5931084156036377</x:v>
+        <x:v>3.544309616088867</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7">
-        <x:v>1.9096832275390625</x:v>
+        <x:v>2.694272041320801</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8">
-        <x:v>-1.436816930770874</x:v>
+        <x:v>3.207045555114746</x:v>
       </x:c>
       <x:c r="B8" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8">
-        <x:v>6.513993740081787</x:v>
+        <x:v>0.9548416137695312</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" t="s">
         <x:v>10</x:v>
@@ -591,16 +609,16 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9">
-        <x:v>-3.0012574195861816</x:v>
+        <x:v>2.873655319213867</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9">
-        <x:v>5.090303897857666</x:v>
+        <x:v>0.9548416137695312</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E9" t="s">
         <x:v>10</x:v>
@@ -608,16 +626,16 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10">
-        <x:v>-5.102087020874023</x:v>
+        <x:v>2.5440943241119385</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10">
-        <x:v>6.875219345092773</x:v>
+        <x:v>0.9548416137695312</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E10" t="s">
         <x:v>10</x:v>
@@ -625,64 +643,103 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11">
-        <x:v>-3.124964475631714</x:v>
+        <x:v>5.113645553588867</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C11">
-        <x:v>6.177227020263672</x:v>
+        <x:v>8.3674955368042</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12">
+        <x:v>4.758356094360352</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>0.9548416137695312</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
-      <x:c r="F12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
     <x:row r="13">
-      <x:c r="F13" t="s">
-        <x:v>24</x:v>
+      <x:c r="A13">
+        <x:v>4.407147407531738</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>0.9548416137695312</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="F14" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="F15" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="F16" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
-      <x:c r="G17" t="s">
-        <x:v>28</x:v>
+      <x:c r="F17" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
-      <x:c r="G18" t="s">
-        <x:v>29</x:v>
+      <x:c r="F18" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="G19" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
-      <x:c r="H20" t="s">
-        <x:v>31</x:v>
+      <x:c r="G20" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="G21" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="G22" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="H23" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/EmotionRegulation/EmotionRegulationAsset/Results/Neuroticism.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Results/Neuroticism.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Ra965d0a7d40c4637"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Raa07d28e60da42b3"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -44,7 +44,7 @@
     <x:t>Talk</x:t>
   </x:si>
   <x:si>
-    <x:t>Response Modulation</x:t>
+    <x:t>None</x:t>
   </x:si>
   <x:si>
     <x:t>Love</x:t>
@@ -53,16 +53,19 @@
     <x:t>Hello</x:t>
   </x:si>
   <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
     <x:t>Conversation</x:t>
   </x:si>
   <x:si>
     <x:t>Hug</x:t>
   </x:si>
   <x:si>
-    <x:t>Discussion</x:t>
+    <x:t>--</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not-Discussion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Situation Selection</x:t>
   </x:si>
   <x:si>
     <x:t>Joy</x:t>
@@ -86,18 +89,6 @@
     <x:t>Profits</x:t>
   </x:si>
   <x:si>
-    <x:t>Remorse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pitty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BecomeRich</x:t>
-  </x:si>
-  <x:si>
     <x:t>Low Conscientiousness</x:t>
   </x:si>
   <x:si>
@@ -113,6 +104,9 @@
     <x:t>Low Openness</x:t>
   </x:si>
   <x:si>
+    <x:t>[Situation Selection, Strongly]</x:t>
+  </x:si>
+  <x:si>
     <x:t>[Situation Modification, Weakly]</x:t>
   </x:si>
   <x:si>
@@ -122,7 +116,7 @@
     <x:t>[Cognitive Change, Weakly]</x:t>
   </x:si>
   <x:si>
-    <x:t>[Response Modulation, Strongly]</x:t>
+    <x:t>[Response Modulation, Lightly]</x:t>
   </x:si>
   <x:si>
     <x:t>Neuroticism</x:t>
@@ -456,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H23"/>
+  <x:dimension ref="A1:H22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -490,13 +484,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>0</x:v>
+        <x:v>-1.4827710390090942</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>1.5806987285614014</x:v>
+        <x:v>4.774208068847656</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -507,101 +501,101 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3">
-        <x:v>0.6227638125419617</x:v>
+        <x:v>-0.974892795085907</x:v>
       </x:c>
       <x:c r="B3" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3">
-        <x:v>2.005167245864868</x:v>
+        <x:v>1.5804238319396973</x:v>
       </x:c>
       <x:c r="D3" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4">
-        <x:v>1.501367449760437</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B4" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C4">
-        <x:v>2.8519487380981445</x:v>
+        <x:v>2.3942959308624268</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5">
-        <x:v>3.0708096027374268</x:v>
+        <x:v>1.4531155824661255</x:v>
       </x:c>
       <x:c r="B5" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5">
-        <x:v>5.108794689178467</x:v>
+        <x:v>4.6787238121032715</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6">
-        <x:v>2.7389841079711914</x:v>
+        <x:v>1.419926404953003</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6">
-        <x:v>0.9548416137695312</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D6" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7">
-        <x:v>3.544309616088867</x:v>
+        <x:v>2.123051166534424</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7">
-        <x:v>2.694272041320801</x:v>
+        <x:v>2.316424608230591</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8">
-        <x:v>3.207045555114746</x:v>
+        <x:v>0.8047746419906616</x:v>
       </x:c>
       <x:c r="B8" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8">
-        <x:v>0.9548416137695312</x:v>
+        <x:v>4.166054725646973</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" t="s">
         <x:v>10</x:v>
@@ -609,16 +603,16 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9">
-        <x:v>2.873655319213867</x:v>
+        <x:v>-0.793574869632721</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9">
-        <x:v>0.9548416137695312</x:v>
+        <x:v>5.116583347320557</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" t="s">
         <x:v>10</x:v>
@@ -626,16 +620,16 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10">
-        <x:v>2.5440943241119385</x:v>
+        <x:v>-2.7233526706695557</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10">
-        <x:v>0.9548416137695312</x:v>
+        <x:v>6.242823123931885</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E10" t="s">
         <x:v>10</x:v>
@@ -643,103 +637,74 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11">
-        <x:v>5.113645553588867</x:v>
+        <x:v>-0.5619249939918518</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11">
-        <x:v>8.3674955368042</x:v>
+        <x:v>6.858622074127197</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
-      <x:c r="A12">
-        <x:v>4.758356094360352</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12">
-        <x:v>0.9548416137695312</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
+      <x:c r="F12" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E12" t="s">
-        <x:v>10</x:v>
-      </x:c>
     </x:row>
     <x:row r="13">
-      <x:c r="A13">
-        <x:v>4.407147407531738</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
+      <x:c r="F13" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="C13">
-        <x:v>0.9548416137695312</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="F14" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="F15" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="F16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="G17" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
-      <x:c r="F17" t="s">
+    <x:row r="18">
+      <x:c r="G18" t="s">
         <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="F18" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="G19" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="G20" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="G21" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="H22" t="s">
         <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
-      <x:c r="G22" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23">
-      <x:c r="H23" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
